--- a/project-task-tracking.xlsx
+++ b/project-task-tracking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinod devrari\DPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\AppData\Roaming\SPB_Data\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2350" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTaskList" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Visi Cooler</t>
+  </si>
+  <si>
+    <t>dfhfgdhfgdhfgdhdfghfdg</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -256,7 +259,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -394,67 +397,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <font>
         <strike val="0"/>
@@ -575,7 +518,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -878,15 +821,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
-      <tableStyleElement type="headerRow" dxfId="41"/>
-      <tableStyleElement type="totalRow" dxfId="40"/>
-      <tableStyleElement type="firstColumn" dxfId="39"/>
-      <tableStyleElement type="lastColumn" dxfId="38"/>
-      <tableStyleElement type="firstRowStripe" dxfId="37"/>
-      <tableStyleElement type="secondRowStripe" dxfId="36"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="35"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="34"/>
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="totalRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="lastColumn" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -901,22 +844,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A5:K31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A5:K31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A5:K31"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="TASK" dataDxfId="16"/>
-    <tableColumn id="9" name="Activity" dataDxfId="15"/>
-    <tableColumn id="8" name="OWNER" dataDxfId="14"/>
-    <tableColumn id="7" name="PRIORITY" dataDxfId="13"/>
-    <tableColumn id="4" name="START" dataDxfId="12"/>
-    <tableColumn id="5" name="END" dataDxfId="11"/>
-    <tableColumn id="2" name="% COMPLETE" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="3" name="DONE" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="1" name="TASK" dataDxfId="10"/>
+    <tableColumn id="9" name="Activity" dataDxfId="9"/>
+    <tableColumn id="8" name="OWNER" dataDxfId="8"/>
+    <tableColumn id="7" name="PRIORITY" dataDxfId="7"/>
+    <tableColumn id="4" name="START" dataDxfId="6"/>
+    <tableColumn id="5" name="END" dataDxfId="5"/>
+    <tableColumn id="2" name="% COMPLETE" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="DONE" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(G6&gt;=1,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EST._x000a_HOURS" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="12" name="ACTUAL_x000a_HOURS" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="NOTES" dataDxfId="6"/>
+    <tableColumn id="11" name="EST._x000a_HOURS" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="12" name="ACTUAL_x000a_HOURS" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="NOTES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1191,23 +1134,23 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="10.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" customWidth="1"/>
     <col min="8" max="8" width="6.25" customWidth="1"/>
     <col min="9" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="20.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,12 +1165,12 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="41" t="s">
         <v>12</v>
       </c>
@@ -1237,10 +1180,10 @@
       <c r="J3" s="43"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>11</v>
       </c>
@@ -1295,7 +1238,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1316,7 +1259,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1327,14 +1270,14 @@
       <c r="F8" s="17"/>
       <c r="G8" s="20"/>
       <c r="H8" s="22">
-        <f t="shared" ref="H6:H31" si="0">IF(G8&gt;=1,1,0)</f>
+        <f t="shared" ref="H8:H31" si="0">IF(G8&gt;=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1352,7 +1295,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1368,7 +1311,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1331,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1412,7 +1355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1430,7 +1373,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1448,7 +1391,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1464,7 +1407,7 @@
       <c r="J15" s="31"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>11</v>
       </c>
@@ -1484,7 +1427,7 @@
       <c r="J16" s="39"/>
       <c r="K16" s="34"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1506,7 +1449,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1524,7 +1467,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1542,7 +1485,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1558,7 +1501,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>11</v>
       </c>
@@ -1576,7 +1519,7 @@
       <c r="J21" s="39"/>
       <c r="K21" s="34"/>
     </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1592,8 +1535,10 @@
       <c r="J22" s="32"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -1608,7 +1553,7 @@
       <c r="J23" s="32"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1624,7 +1569,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1640,7 +1585,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1656,7 +1601,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -1672,7 +1617,7 @@
       <c r="J27" s="30"/>
       <c r="K27" s="26"/>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1688,7 +1633,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -1704,7 +1649,7 @@
       <c r="J29" s="30"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1720,7 +1665,7 @@
       <c r="J30" s="30"/>
       <c r="K30" s="26"/>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1752,13 +1697,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D10 D22:D31 D12:D15 D17:D20">
-    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1777,13 +1722,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1802,13 +1747,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1827,13 +1772,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1852,13 +1797,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",D21)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/project-task-tracking.xlsx
+++ b/project-task-tracking.xlsx
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1539,8 +1539,12 @@
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="14">
+        <v>214412141</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3.2454321043542301E+32</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="11"/>
       <c r="F23" s="19"/>

--- a/project-task-tracking.xlsx
+++ b/project-task-tracking.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>dfhfgdhfgdhfgdhdfghfdg</t>
+  </si>
+  <si>
+    <t>fsdafsdfdf</t>
+  </si>
+  <si>
+    <t>dsdafsadfsdaf</t>
+  </si>
+  <si>
+    <t>sdsdafsdafda</t>
+  </si>
+  <si>
+    <t>fsdafsdaf</t>
+  </si>
+  <si>
+    <t>sdafsdafa</t>
+  </si>
+  <si>
+    <t>dfsdafsda</t>
+  </si>
+  <si>
+    <t>sdafsdaf</t>
+  </si>
+  <si>
+    <t>fsdfsda</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1158,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1333,7 +1357,9 @@
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
@@ -1356,7 +1382,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
@@ -1375,7 +1403,9 @@
     </row>
     <row r="14" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>7</v>
@@ -1392,7 +1422,9 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -1428,8 +1460,12 @@
       <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
         <v>5</v>
@@ -1450,8 +1486,12 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -1468,8 +1508,12 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="4" t="s">
         <v>7</v>
@@ -1487,7 +1531,9 @@
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="13"/>
       <c r="E20" s="11"/>
